--- a/data/ICP_Level_II_sites_N_data_2021.xlsx
+++ b/data/ICP_Level_II_sites_N_data_2021.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon Tresch IAP\Desktop\IAP\1_Projects\11_UNECE\N_leaching_CLempN\N_leaching_analysis_CLempN\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A12B41D-35D1-4C86-8919-0E64E7D7AC76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B299A0E4-F1F8-4616-9C11-163CBBDEE17A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0287CEAC-16CA-4849-9678-E41A93D51B23}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ICP Level II N data" sheetId="1" r:id="rId1"/>
@@ -165,9 +164,6 @@
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>N_troughfall</t>
-  </si>
-  <si>
     <t>N_precipitation</t>
   </si>
   <si>
@@ -316,6 +312,9 @@
   </si>
   <si>
     <t>CH - Sabine Braun and Simon Tresch</t>
+  </si>
+  <si>
+    <t>N_throughfall</t>
   </si>
 </sst>
 </file>
@@ -678,11 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="1">
-      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -722,7 +718,7 @@
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1047,7 +1043,7 @@
         <v>33</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1080,10 +1076,10 @@
         <v>30</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1116,7 +1112,7 @@
         <v>25</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1149,18 +1145,18 @@
         <v>23</v>
       </c>
       <c r="J17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
       </c>
       <c r="D18">
         <v>550.98800000000006</v>
@@ -1180,13 +1176,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
         <v>54</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
       </c>
       <c r="D19">
         <v>978.95442447999994</v>
@@ -1204,21 +1200,21 @@
         <v>22.235628105039041</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20">
         <v>806.226</v>
@@ -1236,18 +1232,18 @@
         <v>19.578713968957874</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21">
         <v>595.55799999999999</v>
@@ -1265,18 +1261,18 @@
         <v>24.750869061413677</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22">
         <v>719.49</v>
@@ -1291,21 +1287,21 @@
         <v>0.15951463899387702</v>
       </c>
       <c r="H22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23">
         <v>699.62</v>
@@ -1323,18 +1319,18 @@
         <v>25.102339181286542</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24">
         <v>623.08800000000008</v>
@@ -1352,18 +1348,18 @@
         <v>25.774253731343286</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25">
         <v>900.53513793160073</v>
@@ -1381,18 +1377,18 @@
         <v>23.438651766795143</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26">
         <v>1732.3383999999999</v>
@@ -1410,15 +1406,15 @@
         <v>19.333333333333336</v>
       </c>
       <c r="J26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
@@ -1439,18 +1435,18 @@
         <v>26.447931526390871</v>
       </c>
       <c r="J27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D28">
         <v>659.34555632000001</v>
@@ -1468,18 +1464,18 @@
         <v>23.52</v>
       </c>
       <c r="J28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29">
         <v>651.52472513999999</v>
@@ -1497,18 +1493,18 @@
         <v>27.352368591823492</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D30">
         <v>1185.3579999999999</v>
@@ -1526,18 +1522,18 @@
         <v>19.936373276776248</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31">
         <v>1091.7305349600001</v>
@@ -1555,18 +1551,18 @@
         <v>21.368560990373656</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32">
         <v>751.73521962011046</v>
@@ -1584,12 +1580,12 @@
         <v>22.740963855421686</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J33" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1607,7 +1603,6 @@
       <selection activeCell="F3" sqref="F3"/>
       <selection pane="bottomLeft" activeCell="D21" sqref="D17:D21"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4645,12 +4640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFB1B43-A2CF-41A2-B653-1C573349BF1F}">
   <dimension ref="A1:L139"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4663,7 +4654,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
         <v>36</v>
@@ -4678,25 +4669,25 @@
         <v>38</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G1" t="s">
         <v>39</v>
       </c>
       <c r="H1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" t="s">
         <v>45</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>48</v>
-      </c>
-      <c r="L1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -4716,7 +4707,7 @@
         <v>31</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G2">
         <v>2002</v>
@@ -4754,7 +4745,7 @@
         <v>31</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G3">
         <v>2003</v>
@@ -4792,7 +4783,7 @@
         <v>31</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G4">
         <v>2004</v>
@@ -4830,7 +4821,7 @@
         <v>31</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5">
         <v>2005</v>
@@ -4868,7 +4859,7 @@
         <v>31</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G6">
         <v>2006</v>
@@ -4906,7 +4897,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G7">
         <v>2007</v>
@@ -4944,7 +4935,7 @@
         <v>31</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G8">
         <v>2008</v>
@@ -4982,7 +4973,7 @@
         <v>31</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G9">
         <v>2009</v>
@@ -5020,7 +5011,7 @@
         <v>31</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G10">
         <v>2010</v>
@@ -5058,7 +5049,7 @@
         <v>31</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G11">
         <v>2011</v>
@@ -5096,7 +5087,7 @@
         <v>31</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G12">
         <v>2012</v>
@@ -5134,7 +5125,7 @@
         <v>31</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G13">
         <v>2013</v>
@@ -5172,7 +5163,7 @@
         <v>31</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G14">
         <v>2014</v>
@@ -5210,7 +5201,7 @@
         <v>31</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G15">
         <v>2015</v>
@@ -5248,7 +5239,7 @@
         <v>31</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G16">
         <v>2016</v>
@@ -5286,7 +5277,7 @@
         <v>31</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G17">
         <v>2017</v>
@@ -5324,7 +5315,7 @@
         <v>31</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G18">
         <v>2018</v>
@@ -5362,7 +5353,7 @@
         <v>31</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G19">
         <v>2019</v>
@@ -5400,7 +5391,7 @@
         <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G20">
         <v>1997</v>
@@ -5438,7 +5429,7 @@
         <v>33</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G21">
         <v>1998</v>
@@ -5476,7 +5467,7 @@
         <v>33</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G22">
         <v>1999</v>
@@ -5514,7 +5505,7 @@
         <v>33</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G23">
         <v>2000</v>
@@ -5552,7 +5543,7 @@
         <v>33</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G24">
         <v>2001</v>
@@ -5590,7 +5581,7 @@
         <v>33</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G25">
         <v>2002</v>
@@ -5628,7 +5619,7 @@
         <v>33</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G26">
         <v>2003</v>
@@ -5666,7 +5657,7 @@
         <v>33</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G27">
         <v>2004</v>
@@ -5704,7 +5695,7 @@
         <v>33</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G28">
         <v>2005</v>
@@ -5742,7 +5733,7 @@
         <v>33</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G29">
         <v>2006</v>
@@ -5780,7 +5771,7 @@
         <v>33</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G30">
         <v>2007</v>
@@ -5818,7 +5809,7 @@
         <v>33</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G31">
         <v>2008</v>
@@ -5856,7 +5847,7 @@
         <v>33</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G32">
         <v>2009</v>
@@ -5894,7 +5885,7 @@
         <v>33</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33">
         <v>2010</v>
@@ -5932,7 +5923,7 @@
         <v>33</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G34">
         <v>2011</v>
@@ -5970,7 +5961,7 @@
         <v>33</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G35">
         <v>2012</v>
@@ -6008,7 +5999,7 @@
         <v>33</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G36">
         <v>2013</v>
@@ -6046,7 +6037,7 @@
         <v>33</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G37">
         <v>2014</v>
@@ -6084,7 +6075,7 @@
         <v>33</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G38">
         <v>2015</v>
@@ -6122,7 +6113,7 @@
         <v>33</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G39">
         <v>2016</v>
@@ -6160,7 +6151,7 @@
         <v>33</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G40">
         <v>2017</v>
@@ -6198,7 +6189,7 @@
         <v>33</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G41">
         <v>2018</v>
@@ -6236,7 +6227,7 @@
         <v>33</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G42">
         <v>2019</v>
@@ -6274,7 +6265,7 @@
         <v>15</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G43">
         <v>1997</v>
@@ -6312,7 +6303,7 @@
         <v>15</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G44">
         <v>1998</v>
@@ -6350,7 +6341,7 @@
         <v>15</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G45">
         <v>1999</v>
@@ -6388,7 +6379,7 @@
         <v>15</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G46">
         <v>2000</v>
@@ -6426,7 +6417,7 @@
         <v>15</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G47">
         <v>2001</v>
@@ -6464,7 +6455,7 @@
         <v>15</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G48">
         <v>2002</v>
@@ -6502,7 +6493,7 @@
         <v>15</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G49">
         <v>2003</v>
@@ -6540,7 +6531,7 @@
         <v>15</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G50">
         <v>2004</v>
@@ -6578,7 +6569,7 @@
         <v>15</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G51">
         <v>2005</v>
@@ -6616,7 +6607,7 @@
         <v>15</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G52">
         <v>2006</v>
@@ -6654,7 +6645,7 @@
         <v>15</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G53">
         <v>2007</v>
@@ -6692,7 +6683,7 @@
         <v>15</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G54">
         <v>2008</v>
@@ -6730,7 +6721,7 @@
         <v>15</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G55">
         <v>2009</v>
@@ -6768,7 +6759,7 @@
         <v>15</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G56">
         <v>2010</v>
@@ -6806,7 +6797,7 @@
         <v>15</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G57">
         <v>2011</v>
@@ -6844,7 +6835,7 @@
         <v>15</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G58">
         <v>2012</v>
@@ -6882,7 +6873,7 @@
         <v>15</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G59">
         <v>2013</v>
@@ -6920,7 +6911,7 @@
         <v>15</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G60">
         <v>2014</v>
@@ -6958,7 +6949,7 @@
         <v>15</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G61">
         <v>2015</v>
@@ -6996,7 +6987,7 @@
         <v>15</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G62">
         <v>2016</v>
@@ -7034,7 +7025,7 @@
         <v>15</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G63">
         <v>2017</v>
@@ -7072,7 +7063,7 @@
         <v>15</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G64">
         <v>2018</v>
@@ -7110,7 +7101,7 @@
         <v>15</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G65">
         <v>2019</v>
@@ -7148,7 +7139,7 @@
         <v>32</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G66">
         <v>1994</v>
@@ -7186,7 +7177,7 @@
         <v>32</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G67">
         <v>1995</v>
@@ -7224,7 +7215,7 @@
         <v>32</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G68">
         <v>1996</v>
@@ -7262,7 +7253,7 @@
         <v>32</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G69">
         <v>1997</v>
@@ -7300,7 +7291,7 @@
         <v>32</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G70">
         <v>1998</v>
@@ -7338,7 +7329,7 @@
         <v>32</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G71">
         <v>1999</v>
@@ -7376,7 +7367,7 @@
         <v>32</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G72">
         <v>2000</v>
@@ -7414,7 +7405,7 @@
         <v>32</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G73">
         <v>2001</v>
@@ -7452,7 +7443,7 @@
         <v>32</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G74">
         <v>2002</v>
@@ -7490,7 +7481,7 @@
         <v>32</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G75">
         <v>2003</v>
@@ -7528,7 +7519,7 @@
         <v>32</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G76">
         <v>2004</v>
@@ -7566,7 +7557,7 @@
         <v>32</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G77">
         <v>2005</v>
@@ -7604,7 +7595,7 @@
         <v>32</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G78">
         <v>2006</v>
@@ -7642,7 +7633,7 @@
         <v>32</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G79">
         <v>2007</v>
@@ -7680,7 +7671,7 @@
         <v>32</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G80">
         <v>2008</v>
@@ -7718,7 +7709,7 @@
         <v>32</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G81">
         <v>2009</v>
@@ -7756,7 +7747,7 @@
         <v>32</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G82">
         <v>2010</v>
@@ -7794,7 +7785,7 @@
         <v>32</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G83">
         <v>2011</v>
@@ -7832,7 +7823,7 @@
         <v>32</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G84">
         <v>2012</v>
@@ -7870,7 +7861,7 @@
         <v>32</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G85">
         <v>2013</v>
@@ -7908,7 +7899,7 @@
         <v>32</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G86">
         <v>2014</v>
@@ -7946,7 +7937,7 @@
         <v>32</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G87">
         <v>2015</v>
@@ -7984,7 +7975,7 @@
         <v>32</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G88">
         <v>2016</v>
@@ -8022,7 +8013,7 @@
         <v>32</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G89">
         <v>2017</v>
@@ -8060,7 +8051,7 @@
         <v>32</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G90">
         <v>2018</v>
@@ -8098,7 +8089,7 @@
         <v>32</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G91">
         <v>2019</v>
@@ -8136,7 +8127,7 @@
         <v>31</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G92">
         <v>1996</v>
@@ -8174,7 +8165,7 @@
         <v>31</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G93">
         <v>1997</v>
@@ -8212,7 +8203,7 @@
         <v>31</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G94">
         <v>1998</v>
@@ -8250,7 +8241,7 @@
         <v>31</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G95">
         <v>1999</v>
@@ -8288,7 +8279,7 @@
         <v>31</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G96">
         <v>2000</v>
@@ -8326,7 +8317,7 @@
         <v>31</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G97">
         <v>2001</v>
@@ -8364,7 +8355,7 @@
         <v>31</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G98">
         <v>2002</v>
@@ -8402,7 +8393,7 @@
         <v>31</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G99">
         <v>2003</v>
@@ -8440,7 +8431,7 @@
         <v>31</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G100">
         <v>2004</v>
@@ -8478,7 +8469,7 @@
         <v>31</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G101">
         <v>2005</v>
@@ -8516,7 +8507,7 @@
         <v>31</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G102">
         <v>2006</v>
@@ -8554,7 +8545,7 @@
         <v>31</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G103">
         <v>2007</v>
@@ -8592,7 +8583,7 @@
         <v>31</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G104">
         <v>2008</v>
@@ -8630,7 +8621,7 @@
         <v>31</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G105">
         <v>2009</v>
@@ -8668,7 +8659,7 @@
         <v>31</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G106">
         <v>2010</v>
@@ -8706,7 +8697,7 @@
         <v>31</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G107">
         <v>2011</v>
@@ -8744,7 +8735,7 @@
         <v>31</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G108">
         <v>2012</v>
@@ -8782,7 +8773,7 @@
         <v>31</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G109">
         <v>2013</v>
@@ -8820,7 +8811,7 @@
         <v>31</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G110">
         <v>2014</v>
@@ -8858,7 +8849,7 @@
         <v>31</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G111">
         <v>2015</v>
@@ -8896,7 +8887,7 @@
         <v>31</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G112">
         <v>2016</v>
@@ -8934,7 +8925,7 @@
         <v>31</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G113">
         <v>2017</v>
@@ -8972,7 +8963,7 @@
         <v>31</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G114">
         <v>2018</v>
@@ -9010,7 +9001,7 @@
         <v>31</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G115">
         <v>2019</v>
@@ -9045,7 +9036,7 @@
         <v>14</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H116">
         <v>7.8575224718590695</v>
@@ -9077,7 +9068,7 @@
         <v>14</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H117">
         <v>16.248109738029164</v>
@@ -9109,7 +9100,7 @@
         <v>14</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H118">
         <v>12.91438003683859</v>
@@ -9141,7 +9132,7 @@
         <v>15</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H119">
         <v>15.0489904293331</v>
@@ -9173,7 +9164,7 @@
         <v>15</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H120">
         <v>11.720490270820212</v>
@@ -9205,7 +9196,7 @@
         <v>15</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H121">
         <v>2.9276904219806621</v>
@@ -9237,7 +9228,7 @@
         <v>16</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H122">
         <v>8.9030978476249469</v>
@@ -9269,7 +9260,7 @@
         <v>16</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H123">
         <v>3.3152522724761826</v>
@@ -9301,7 +9292,7 @@
         <v>16</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H124">
         <v>9.5213671855321333</v>
@@ -9321,19 +9312,19 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B125" t="s">
+        <v>50</v>
+      </c>
+      <c r="D125" t="s">
         <v>51</v>
       </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
         <v>52</v>
       </c>
-      <c r="E125" t="s">
-        <v>53</v>
-      </c>
       <c r="F125" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H125" s="5">
         <v>11.564444802078857</v>
@@ -9353,19 +9344,19 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B126" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D126" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E126" t="s">
+        <v>84</v>
+      </c>
+      <c r="F126" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="H126" s="5">
         <v>5.9876524580645158</v>
@@ -9385,19 +9376,19 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B127" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D127" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E127" t="s">
+        <v>84</v>
+      </c>
+      <c r="F127" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="H127" s="5">
         <v>10.984452582795701</v>
@@ -9417,19 +9408,19 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B128" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D128" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E128" t="s">
+        <v>84</v>
+      </c>
+      <c r="F128" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="H128" s="5">
         <v>13.241655592114695</v>
@@ -9449,19 +9440,19 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B129" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D129" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E129" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H129" s="5">
         <v>11.569038514695343</v>
@@ -9479,19 +9470,19 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B130" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D130" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E130" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H130" s="5">
         <v>6.3634249677419374</v>
@@ -9511,19 +9502,19 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B131" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D131" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E131" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H131" s="5">
         <v>7.5418663770609324</v>
@@ -9543,19 +9534,19 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B132" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D132" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E132" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H132" s="5">
         <v>4.3580828238166855</v>
@@ -9575,19 +9566,19 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B133" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D133" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E133" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H133" s="5">
         <v>10.807116559856631</v>
@@ -9607,19 +9598,19 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B134" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D134" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E134" t="s">
         <v>15</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H134" s="5">
         <v>9.735613550042526</v>
@@ -9639,19 +9630,19 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B135" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D135" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E135" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H135" s="5">
         <v>20.540624754121868</v>
@@ -9671,19 +9662,19 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B136" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D136" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E136" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H136" s="5">
         <v>12.675100006227321</v>
@@ -9703,19 +9694,19 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B137" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D137" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E137" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H137" s="5">
         <v>41.726440677419355</v>
@@ -9735,19 +9726,19 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B138" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D138" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E138" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H138" s="5">
         <v>16.313251271684589</v>
@@ -9767,19 +9758,19 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B139" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D139" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H139" s="5">
         <v>11.54539542866083</v>

--- a/data/ICP_Level_II_sites_N_data_2021.xlsx
+++ b/data/ICP_Level_II_sites_N_data_2021.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon Tresch IAP\Desktop\IAP\1_Projects\11_UNECE\N_leaching_CLempN\N_leaching_analysis_CLempN\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B299A0E4-F1F8-4616-9C11-163CBBDEE17A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6728BA-F2BD-4E56-9667-E6798C3D059C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2856" yWindow="2508" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ICP Level II N data" sheetId="1" r:id="rId1"/>
     <sheet name="annual data" sheetId="2" r:id="rId2"/>
     <sheet name="data_R_export" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">data_R_export!$A$1:$L$140</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="101">
   <si>
     <t>throughfall</t>
   </si>
@@ -315,12 +318,30 @@
   </si>
   <si>
     <t>N_throughfall</t>
+  </si>
+  <si>
+    <t>Rogate</t>
+  </si>
+  <si>
+    <t>2015-2019</t>
+  </si>
+  <si>
+    <t>2000-2005</t>
+  </si>
+  <si>
+    <t>can update to 2010</t>
+  </si>
+  <si>
+    <t>can update to 2014</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -363,12 +384,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -383,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -395,6 +422,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -675,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -689,6 +720,7 @@
     <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="233.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -717,6 +749,9 @@
       <c r="H1" t="s">
         <v>19</v>
       </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
       <c r="J1" t="s">
         <v>83</v>
       </c>
@@ -760,19 +795,22 @@
         <v>14</v>
       </c>
       <c r="D4" s="1">
-        <v>683.3622562827203</v>
+        <v>918.97</v>
       </c>
       <c r="E4" s="1">
-        <v>7.8575224718590695</v>
+        <v>7.44</v>
       </c>
       <c r="F4" s="1">
-        <v>9.07458080282486</v>
+        <v>6.4993822768361582</v>
       </c>
       <c r="G4" s="1">
-        <v>7.7485297026859384E-2</v>
+        <v>0.34</v>
       </c>
       <c r="H4" s="1">
         <v>27.32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -800,6 +838,9 @@
       <c r="H5" s="1">
         <v>38.42</v>
       </c>
+      <c r="I5" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -826,6 +867,12 @@
       <c r="H6" s="1">
         <v>32.22</v>
       </c>
+      <c r="I6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -838,19 +885,22 @@
         <v>15</v>
       </c>
       <c r="D7" s="1">
-        <v>430.83603582504435</v>
+        <v>700.27570621468908</v>
       </c>
       <c r="E7" s="1">
-        <v>15.0489904293331</v>
+        <v>17.309999999999999</v>
       </c>
       <c r="F7" s="1">
-        <v>8.4588483096550657</v>
+        <v>8.1181984858757055</v>
       </c>
       <c r="G7" s="1">
-        <v>27.19</v>
+        <v>29.32</v>
       </c>
       <c r="H7" s="1">
         <v>19.02</v>
+      </c>
+      <c r="I7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -858,25 +908,26 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="1">
-        <v>842.88626915570103</v>
+        <v>918.12316384180792</v>
       </c>
       <c r="E8" s="1">
-        <v>11.720490270820212</v>
+        <v>11.73</v>
       </c>
       <c r="F8" s="1">
-        <v>18.607093888851377</v>
+        <v>7.0068429237288132</v>
       </c>
       <c r="G8" s="1">
-        <v>16.03</v>
-      </c>
-      <c r="H8" s="1">
-        <v>31.06</v>
+        <v>6.65</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -884,25 +935,31 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="1">
-        <v>853.49122807017557</v>
+        <v>842.88626915570103</v>
       </c>
       <c r="E9" s="1">
-        <v>2.9276904219806621</v>
+        <v>11.720490270820212</v>
       </c>
       <c r="F9" s="1">
-        <v>5.2583425490023474</v>
+        <v>18.607093888851377</v>
       </c>
       <c r="G9" s="1">
-        <v>9.5049214921084271E-2</v>
+        <v>16.03</v>
       </c>
       <c r="H9" s="1">
-        <v>36.86</v>
+        <v>31.06</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -910,25 +967,31 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1">
-        <v>908.74405292893255</v>
+        <v>853.49122807017557</v>
       </c>
       <c r="E10" s="1">
-        <v>8.9030978476249469</v>
+        <v>2.9276904219806621</v>
       </c>
       <c r="F10" s="1">
-        <v>10.228896939736345</v>
+        <v>5.2583425490023474</v>
       </c>
       <c r="G10" s="1">
-        <v>18.760000000000002</v>
+        <v>9.5049214921084271E-2</v>
       </c>
       <c r="H10" s="1">
-        <v>26.52</v>
+        <v>36.86</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -936,25 +999,28 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="1">
-        <v>768.01576965011407</v>
+        <v>1444.4406779661017</v>
       </c>
       <c r="E11" s="1">
-        <v>3.3152522724761826</v>
+        <v>6.45</v>
       </c>
       <c r="F11" s="1">
-        <v>4.6382425014456183</v>
+        <v>8.1611078813559317</v>
       </c>
       <c r="G11" s="1">
-        <v>21.61</v>
+        <v>3.66</v>
       </c>
       <c r="H11" s="1">
-        <v>28.45</v>
+        <v>26.52</v>
+      </c>
+      <c r="I11" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -962,216 +1028,243 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="1">
+        <v>768.01576965011407</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3.3152522724761826</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4.6382425014456183</v>
+      </c>
+      <c r="G12" s="1">
+        <v>21.61</v>
+      </c>
+      <c r="H12" s="1">
+        <v>28.45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1">
         <v>1342.6347128114639</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E13" s="1">
         <v>9.5213671855321333</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F13" s="1">
         <v>8.9674759012644607</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G13" s="1">
         <v>0.16</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H13" s="1">
         <v>25.14</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="I13" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D14" s="1">
         <f>AVERAGE('annual data'!E17:E21)</f>
         <v>871.51613062910133</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E14" s="1">
         <f>AVERAGE('annual data'!F17:F21)</f>
         <v>17.988004962702586</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F14" s="1">
         <f>AVERAGE('annual data'!G17:G21)</f>
         <v>10.746842449741774</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G14" s="1">
         <f>AVERAGE('annual data'!H17:H21)</f>
         <v>3.5742171403256728</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H14" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="I14" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D15" s="1">
         <f>AVERAGE('annual data'!E40:E44)</f>
         <v>849.40928166943286</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E15" s="1">
         <f>AVERAGE('annual data'!F40:F44)</f>
         <v>25.180998202937776</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F15" s="1">
         <f>AVERAGE('annual data'!G40:G44)</f>
         <v>12.89315629936635</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G15" s="1">
         <f>AVERAGE('annual data'!H40:H44)</f>
         <v>2.7820111036060196</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H15" s="3">
         <v>33</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="I15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D16" s="4">
         <f>AVERAGE('annual data'!E63:E67)</f>
         <v>961.4420189778873</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E16" s="4">
         <f>AVERAGE('annual data'!F63:F67)</f>
         <v>21.904642256185561</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F16" s="4">
         <f>AVERAGE('annual data'!G63:G67)</f>
         <v>11.987681932934695</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G16" s="4">
         <f>AVERAGE('annual data'!H63:H67)</f>
         <v>5.5550292954215186</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H16" s="3">
         <v>30</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="I16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K16" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D17" s="4">
         <f>AVERAGE('annual data'!E89:E93)</f>
         <v>786.04287789841669</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E17" s="4">
         <f>AVERAGE('annual data'!F89:F93)</f>
         <v>14.981414478891782</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F17" s="4">
         <f>AVERAGE('annual data'!G89:G93)</f>
         <v>10.65300609045298</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G17" s="4">
         <f>AVERAGE('annual data'!H89:H93)</f>
         <v>4.0860064923631381</v>
       </c>
-      <c r="H16" s="3">
-        <v>25</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="H17" s="3">
+        <v>25</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D18" s="4">
         <f>AVERAGE('annual data'!E113:E117)</f>
         <v>887.57908686515566</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E18" s="4">
         <f>AVERAGE('annual data'!F113:F117)</f>
         <v>11.991723420641188</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F18" s="4">
         <f>AVERAGE('annual data'!G113:G117)</f>
         <v>10.490969742804143</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G18" s="4">
         <f>AVERAGE('annual data'!H113:H117)</f>
         <v>0.99161478267960634</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H18" s="3">
         <v>23</v>
       </c>
-      <c r="J17" t="s">
+      <c r="I18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18">
-        <v>550.98800000000006</v>
-      </c>
-      <c r="E18">
-        <v>11.564444802078857</v>
-      </c>
-      <c r="F18">
-        <v>8.150323453046596</v>
-      </c>
-      <c r="G18">
-        <v>0.28663803153633338</v>
-      </c>
-      <c r="H18">
-        <v>25.529856600127594</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1179,31 +1272,28 @@
         <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D19">
-        <v>978.95442447999994</v>
+        <v>550.98800000000006</v>
       </c>
       <c r="E19">
-        <v>5.9876524580645158</v>
+        <v>11.564444802078857</v>
       </c>
       <c r="F19">
-        <v>9.2344973082821991</v>
+        <v>8.150323453046596</v>
       </c>
       <c r="G19">
-        <v>1.6435112877537352</v>
+        <v>0.28663803153633338</v>
       </c>
       <c r="H19">
-        <v>22.235628105039041</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>78</v>
+        <v>25.529856600127594</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1211,28 +1301,34 @@
         <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
         <v>54</v>
       </c>
       <c r="D20">
-        <v>806.226</v>
+        <v>978.95442447999994</v>
       </c>
       <c r="E20">
-        <v>10.984452582795701</v>
+        <v>5.9876524580645158</v>
       </c>
       <c r="F20">
-        <v>9.1433926788530453</v>
+        <v>9.2344973082821991</v>
       </c>
       <c r="G20">
-        <v>2.7594098087514909</v>
+        <v>1.6435112877537352</v>
       </c>
       <c r="H20">
-        <v>19.578713968957874</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>70</v>
+        <v>22.235628105039041</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1240,28 +1336,31 @@
         <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
         <v>54</v>
       </c>
       <c r="D21">
-        <v>595.55799999999999</v>
+        <v>806.226</v>
       </c>
       <c r="E21">
-        <v>13.241655592114695</v>
+        <v>10.984452582795701</v>
       </c>
       <c r="F21">
-        <v>5.4309053856630829</v>
+        <v>9.1433926788530453</v>
       </c>
       <c r="G21">
-        <v>0.44785451531958975</v>
+        <v>2.7594098087514909</v>
       </c>
       <c r="H21">
-        <v>24.750869061413677</v>
+        <v>19.578713968957874</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1269,28 +1368,31 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D22">
-        <v>719.49</v>
+        <v>595.55799999999999</v>
       </c>
       <c r="E22">
-        <v>11.569038514695343</v>
+        <v>13.241655592114695</v>
       </c>
       <c r="F22">
-        <v>6.1831653032258052</v>
+        <v>5.4309053856630829</v>
       </c>
       <c r="G22">
-        <v>0.15951463899387702</v>
-      </c>
-      <c r="H22" t="s">
-        <v>58</v>
+        <v>0.44785451531958975</v>
+      </c>
+      <c r="H22">
+        <v>24.750869061413677</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1298,28 +1400,31 @@
         <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
         <v>52</v>
       </c>
       <c r="D23">
-        <v>699.62</v>
+        <v>719.49</v>
       </c>
       <c r="E23">
-        <v>6.3634249677419374</v>
+        <v>11.569038514695343</v>
       </c>
       <c r="F23">
-        <v>4.8726254211469522</v>
+        <v>6.1831653032258052</v>
       </c>
       <c r="G23">
-        <v>1.2183371742902527</v>
-      </c>
-      <c r="H23">
-        <v>25.102339181286542</v>
+        <v>0.15951463899387702</v>
+      </c>
+      <c r="H23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1327,28 +1432,31 @@
         <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
         <v>52</v>
       </c>
       <c r="D24">
-        <v>623.08800000000008</v>
+        <v>699.62</v>
       </c>
       <c r="E24">
-        <v>7.5418663770609324</v>
+        <v>6.3634249677419374</v>
       </c>
       <c r="F24">
-        <v>9.2364007605734741</v>
+        <v>4.8726254211469522</v>
       </c>
       <c r="G24">
-        <v>5.0264829356951478E-3</v>
+        <v>1.2183371742902527</v>
       </c>
       <c r="H24">
-        <v>25.774253731343286</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>79</v>
+        <v>25.102339181286542</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1356,28 +1464,31 @@
         <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
         <v>52</v>
       </c>
       <c r="D25">
-        <v>900.53513793160073</v>
+        <v>623.08800000000008</v>
       </c>
       <c r="E25">
-        <v>4.3580828238166855</v>
+        <v>7.5418663770609324</v>
       </c>
       <c r="F25">
-        <v>6.8623136283746993</v>
+        <v>9.2364007605734741</v>
       </c>
       <c r="G25">
-        <v>8.7192047531990599E-2</v>
+        <v>5.0264829356951478E-3</v>
       </c>
       <c r="H25">
-        <v>23.438651766795143</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>93</v>
+        <v>25.774253731343286</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1385,28 +1496,31 @@
         <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
         <v>52</v>
       </c>
       <c r="D26">
-        <v>1732.3383999999999</v>
+        <v>900.53513793160073</v>
       </c>
       <c r="E26">
-        <v>10.807116559856631</v>
+        <v>4.3580828238166855</v>
       </c>
       <c r="F26">
-        <v>17.16674878357945</v>
+        <v>6.8623136283746993</v>
       </c>
       <c r="G26">
-        <v>3.7542823202857782</v>
+        <v>8.7192047531990599E-2</v>
       </c>
       <c r="H26">
-        <v>19.333333333333336</v>
-      </c>
-      <c r="J26" t="s">
-        <v>73</v>
+        <v>23.438651766795143</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1414,28 +1528,31 @@
         <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="D27">
-        <v>722.15747033353819</v>
+        <v>1732.3383999999999</v>
       </c>
       <c r="E27">
-        <v>9.735613550042526</v>
+        <v>10.807116559856631</v>
       </c>
       <c r="F27">
-        <v>5.7696831905629704</v>
+        <v>17.16674878357945</v>
       </c>
       <c r="G27">
-        <v>1.9815624982602158</v>
+        <v>3.7542823202857782</v>
       </c>
       <c r="H27">
-        <v>26.447931526390871</v>
+        <v>19.333333333333336</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="J27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1443,28 +1560,31 @@
         <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>659.34555632000001</v>
+        <v>722.15747033353819</v>
       </c>
       <c r="E28">
-        <v>20.540624754121868</v>
+        <v>9.735613550042526</v>
       </c>
       <c r="F28">
-        <v>9.8857318641519267</v>
+        <v>5.7696831905629704</v>
       </c>
       <c r="G28">
-        <v>2.1090559872967689</v>
+        <v>1.9815624982602158</v>
       </c>
       <c r="H28">
-        <v>23.52</v>
+        <v>26.447931526390871</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="J28" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1472,28 +1592,31 @@
         <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
         <v>52</v>
       </c>
       <c r="D29">
-        <v>651.52472513999999</v>
+        <v>659.34555632000001</v>
       </c>
       <c r="E29">
-        <v>12.675100006227321</v>
+        <v>20.540624754121868</v>
       </c>
       <c r="F29">
-        <v>7.0540910247632906</v>
+        <v>9.8857318641519267</v>
       </c>
       <c r="G29">
-        <v>0.10259442089788992</v>
+        <v>2.1090559872967689</v>
       </c>
       <c r="H29">
-        <v>27.352368591823492</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>80</v>
+        <v>23.52</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J29" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -1501,28 +1624,31 @@
         <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
         <v>52</v>
       </c>
       <c r="D30">
-        <v>1185.3579999999999</v>
+        <v>651.52472513999999</v>
       </c>
       <c r="E30">
-        <v>41.726440677419355</v>
+        <v>12.675100006227321</v>
       </c>
       <c r="F30">
-        <v>14.720984675268818</v>
+        <v>7.0540910247632906</v>
       </c>
       <c r="G30">
-        <v>1.6281615675866792</v>
+        <v>0.10259442089788992</v>
       </c>
       <c r="H30">
-        <v>19.936373276776248</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>94</v>
+        <v>27.352368591823492</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1530,28 +1656,31 @@
         <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
         <v>52</v>
       </c>
       <c r="D31">
-        <v>1091.7305349600001</v>
+        <v>1185.3579999999999</v>
       </c>
       <c r="E31">
-        <v>16.313251271684589</v>
+        <v>41.726440677419355</v>
       </c>
       <c r="F31">
-        <v>10.007856784792718</v>
+        <v>14.720984675268818</v>
       </c>
       <c r="G31">
-        <v>1.3477144043264409</v>
+        <v>1.6281615675866792</v>
       </c>
       <c r="H31">
-        <v>21.368560990373656</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>81</v>
+        <v>19.936373276776248</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -1559,32 +1688,67 @@
         <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
         <v>52</v>
       </c>
       <c r="D32">
+        <v>1091.7305349600001</v>
+      </c>
+      <c r="E32">
+        <v>16.313251271684589</v>
+      </c>
+      <c r="F32">
+        <v>10.007856784792718</v>
+      </c>
+      <c r="G32">
+        <v>1.3477144043264409</v>
+      </c>
+      <c r="H32">
+        <v>21.368560990373656</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33">
         <v>751.73521962011046</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <v>11.54539542866083</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>5.5286410375871169</v>
       </c>
-      <c r="G32">
+      <c r="G33">
         <v>0.57731769027377577</v>
       </c>
-      <c r="H32">
+      <c r="H33">
         <v>22.740963855421686</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="I33" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J33" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J33" s="5" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J34" s="5" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1599,7 +1763,7 @@
   <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1152" topLeftCell="A52" activePane="bottomLeft"/>
+      <pane ySplit="1152" topLeftCell="A16" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3"/>
       <selection pane="bottomLeft" activeCell="D21" sqref="D17:D21"/>
     </sheetView>
@@ -4638,10 +4802,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFB1B43-A2CF-41A2-B653-1C573349BF1F}">
-  <dimension ref="A1:L139"/>
+  <dimension ref="A1:L140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4709,7 +4874,7 @@
       <c r="F2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="10">
         <v>2002</v>
       </c>
       <c r="H2">
@@ -4747,7 +4912,7 @@
       <c r="F3" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="10">
         <v>2003</v>
       </c>
       <c r="H3">
@@ -4785,7 +4950,7 @@
       <c r="F4" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="10">
         <v>2004</v>
       </c>
       <c r="H4">
@@ -4823,7 +4988,7 @@
       <c r="F5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="10">
         <v>2005</v>
       </c>
       <c r="H5">
@@ -4861,7 +5026,7 @@
       <c r="F6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="10">
         <v>2006</v>
       </c>
       <c r="H6">
@@ -4899,7 +5064,7 @@
       <c r="F7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="10">
         <v>2007</v>
       </c>
       <c r="H7">
@@ -4937,7 +5102,7 @@
       <c r="F8" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="10">
         <v>2008</v>
       </c>
       <c r="H8">
@@ -4975,7 +5140,7 @@
       <c r="F9" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="10">
         <v>2009</v>
       </c>
       <c r="H9">
@@ -5013,7 +5178,7 @@
       <c r="F10" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="10">
         <v>2010</v>
       </c>
       <c r="H10">
@@ -5051,7 +5216,7 @@
       <c r="F11" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="10">
         <v>2011</v>
       </c>
       <c r="H11">
@@ -5089,7 +5254,7 @@
       <c r="F12" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="10">
         <v>2012</v>
       </c>
       <c r="H12">
@@ -5127,7 +5292,7 @@
       <c r="F13" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="10">
         <v>2013</v>
       </c>
       <c r="H13">
@@ -5165,7 +5330,7 @@
       <c r="F14" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="10">
         <v>2014</v>
       </c>
       <c r="H14">
@@ -5203,7 +5368,7 @@
       <c r="F15" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="10">
         <v>2015</v>
       </c>
       <c r="H15">
@@ -5241,7 +5406,7 @@
       <c r="F16" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="10">
         <v>2016</v>
       </c>
       <c r="H16">
@@ -5279,7 +5444,7 @@
       <c r="F17" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="10">
         <v>2017</v>
       </c>
       <c r="H17">
@@ -5317,7 +5482,7 @@
       <c r="F18" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="10">
         <v>2018</v>
       </c>
       <c r="H18">
@@ -5355,7 +5520,7 @@
       <c r="F19" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="10">
         <v>2019</v>
       </c>
       <c r="H19">
@@ -5393,7 +5558,7 @@
       <c r="F20" t="s">
         <v>86</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="10">
         <v>1997</v>
       </c>
       <c r="H20">
@@ -5431,7 +5596,7 @@
       <c r="F21" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="10">
         <v>1998</v>
       </c>
       <c r="H21">
@@ -5469,7 +5634,7 @@
       <c r="F22" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="10">
         <v>1999</v>
       </c>
       <c r="H22">
@@ -5507,7 +5672,7 @@
       <c r="F23" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="10">
         <v>2000</v>
       </c>
       <c r="H23">
@@ -5545,7 +5710,7 @@
       <c r="F24" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="10">
         <v>2001</v>
       </c>
       <c r="H24">
@@ -5583,7 +5748,7 @@
       <c r="F25" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="10">
         <v>2002</v>
       </c>
       <c r="H25">
@@ -5621,7 +5786,7 @@
       <c r="F26" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="10">
         <v>2003</v>
       </c>
       <c r="H26">
@@ -5659,7 +5824,7 @@
       <c r="F27" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="10">
         <v>2004</v>
       </c>
       <c r="H27">
@@ -5697,7 +5862,7 @@
       <c r="F28" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="10">
         <v>2005</v>
       </c>
       <c r="H28">
@@ -5735,7 +5900,7 @@
       <c r="F29" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="10">
         <v>2006</v>
       </c>
       <c r="H29">
@@ -5773,7 +5938,7 @@
       <c r="F30" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="10">
         <v>2007</v>
       </c>
       <c r="H30">
@@ -5811,7 +5976,7 @@
       <c r="F31" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="10">
         <v>2008</v>
       </c>
       <c r="H31">
@@ -5849,7 +6014,7 @@
       <c r="F32" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="10">
         <v>2009</v>
       </c>
       <c r="H32">
@@ -5887,7 +6052,7 @@
       <c r="F33" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="10">
         <v>2010</v>
       </c>
       <c r="H33">
@@ -5925,7 +6090,7 @@
       <c r="F34" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="10">
         <v>2011</v>
       </c>
       <c r="H34">
@@ -5963,7 +6128,7 @@
       <c r="F35" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="10">
         <v>2012</v>
       </c>
       <c r="H35">
@@ -6001,7 +6166,7 @@
       <c r="F36" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="10">
         <v>2013</v>
       </c>
       <c r="H36">
@@ -6039,7 +6204,7 @@
       <c r="F37" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="10">
         <v>2014</v>
       </c>
       <c r="H37">
@@ -6077,7 +6242,7 @@
       <c r="F38" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="10">
         <v>2015</v>
       </c>
       <c r="H38">
@@ -6115,7 +6280,7 @@
       <c r="F39" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="10">
         <v>2016</v>
       </c>
       <c r="H39">
@@ -6153,7 +6318,7 @@
       <c r="F40" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="10">
         <v>2017</v>
       </c>
       <c r="H40">
@@ -6191,7 +6356,7 @@
       <c r="F41" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="10">
         <v>2018</v>
       </c>
       <c r="H41">
@@ -6229,7 +6394,7 @@
       <c r="F42" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="10">
         <v>2019</v>
       </c>
       <c r="H42">
@@ -6267,7 +6432,7 @@
       <c r="F43" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="10">
         <v>1997</v>
       </c>
       <c r="H43">
@@ -6305,7 +6470,7 @@
       <c r="F44" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="10">
         <v>1998</v>
       </c>
       <c r="H44">
@@ -6343,7 +6508,7 @@
       <c r="F45" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="10">
         <v>1999</v>
       </c>
       <c r="H45">
@@ -6381,7 +6546,7 @@
       <c r="F46" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="10">
         <v>2000</v>
       </c>
       <c r="H46">
@@ -6419,7 +6584,7 @@
       <c r="F47" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="10">
         <v>2001</v>
       </c>
       <c r="H47">
@@ -6457,7 +6622,7 @@
       <c r="F48" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="10">
         <v>2002</v>
       </c>
       <c r="H48">
@@ -6495,7 +6660,7 @@
       <c r="F49" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="10">
         <v>2003</v>
       </c>
       <c r="H49">
@@ -6533,7 +6698,7 @@
       <c r="F50" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="10">
         <v>2004</v>
       </c>
       <c r="H50">
@@ -6571,7 +6736,7 @@
       <c r="F51" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="10">
         <v>2005</v>
       </c>
       <c r="H51">
@@ -6609,7 +6774,7 @@
       <c r="F52" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="10">
         <v>2006</v>
       </c>
       <c r="H52">
@@ -6647,7 +6812,7 @@
       <c r="F53" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="10">
         <v>2007</v>
       </c>
       <c r="H53">
@@ -6685,7 +6850,7 @@
       <c r="F54" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="10">
         <v>2008</v>
       </c>
       <c r="H54">
@@ -6723,7 +6888,7 @@
       <c r="F55" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="10">
         <v>2009</v>
       </c>
       <c r="H55">
@@ -6761,7 +6926,7 @@
       <c r="F56" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="10">
         <v>2010</v>
       </c>
       <c r="H56">
@@ -6799,7 +6964,7 @@
       <c r="F57" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="10">
         <v>2011</v>
       </c>
       <c r="H57">
@@ -6837,7 +7002,7 @@
       <c r="F58" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="10">
         <v>2012</v>
       </c>
       <c r="H58">
@@ -6875,7 +7040,7 @@
       <c r="F59" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="10">
         <v>2013</v>
       </c>
       <c r="H59">
@@ -6913,7 +7078,7 @@
       <c r="F60" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="10">
         <v>2014</v>
       </c>
       <c r="H60">
@@ -6951,7 +7116,7 @@
       <c r="F61" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="10">
         <v>2015</v>
       </c>
       <c r="H61">
@@ -6989,7 +7154,7 @@
       <c r="F62" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="10">
         <v>2016</v>
       </c>
       <c r="H62">
@@ -7027,7 +7192,7 @@
       <c r="F63" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="10">
         <v>2017</v>
       </c>
       <c r="H63">
@@ -7065,7 +7230,7 @@
       <c r="F64" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="10">
         <v>2018</v>
       </c>
       <c r="H64">
@@ -7103,7 +7268,7 @@
       <c r="F65" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="10">
         <v>2019</v>
       </c>
       <c r="H65">
@@ -7141,7 +7306,7 @@
       <c r="F66" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="10">
         <v>1994</v>
       </c>
       <c r="H66">
@@ -7179,7 +7344,7 @@
       <c r="F67" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="10">
         <v>1995</v>
       </c>
       <c r="H67">
@@ -7217,7 +7382,7 @@
       <c r="F68" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="10">
         <v>1996</v>
       </c>
       <c r="H68">
@@ -7255,7 +7420,7 @@
       <c r="F69" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="10">
         <v>1997</v>
       </c>
       <c r="H69">
@@ -7293,7 +7458,7 @@
       <c r="F70" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="10">
         <v>1998</v>
       </c>
       <c r="H70">
@@ -7331,7 +7496,7 @@
       <c r="F71" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="10">
         <v>1999</v>
       </c>
       <c r="H71">
@@ -7369,7 +7534,7 @@
       <c r="F72" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="10">
         <v>2000</v>
       </c>
       <c r="H72">
@@ -7407,7 +7572,7 @@
       <c r="F73" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="10">
         <v>2001</v>
       </c>
       <c r="H73">
@@ -7445,7 +7610,7 @@
       <c r="F74" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="10">
         <v>2002</v>
       </c>
       <c r="H74">
@@ -7483,7 +7648,7 @@
       <c r="F75" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="10">
         <v>2003</v>
       </c>
       <c r="H75">
@@ -7521,7 +7686,7 @@
       <c r="F76" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="10">
         <v>2004</v>
       </c>
       <c r="H76">
@@ -7559,7 +7724,7 @@
       <c r="F77" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="10">
         <v>2005</v>
       </c>
       <c r="H77">
@@ -7597,7 +7762,7 @@
       <c r="F78" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="10">
         <v>2006</v>
       </c>
       <c r="H78">
@@ -7635,7 +7800,7 @@
       <c r="F79" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="10">
         <v>2007</v>
       </c>
       <c r="H79">
@@ -7673,7 +7838,7 @@
       <c r="F80" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="10">
         <v>2008</v>
       </c>
       <c r="H80">
@@ -7711,7 +7876,7 @@
       <c r="F81" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="10">
         <v>2009</v>
       </c>
       <c r="H81">
@@ -7749,7 +7914,7 @@
       <c r="F82" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="10">
         <v>2010</v>
       </c>
       <c r="H82">
@@ -7787,7 +7952,7 @@
       <c r="F83" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="10">
         <v>2011</v>
       </c>
       <c r="H83">
@@ -7825,7 +7990,7 @@
       <c r="F84" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="10">
         <v>2012</v>
       </c>
       <c r="H84">
@@ -7863,7 +8028,7 @@
       <c r="F85" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="10">
         <v>2013</v>
       </c>
       <c r="H85">
@@ -7901,7 +8066,7 @@
       <c r="F86" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="10">
         <v>2014</v>
       </c>
       <c r="H86">
@@ -7939,7 +8104,7 @@
       <c r="F87" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="10">
         <v>2015</v>
       </c>
       <c r="H87">
@@ -7977,7 +8142,7 @@
       <c r="F88" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="10">
         <v>2016</v>
       </c>
       <c r="H88">
@@ -8015,7 +8180,7 @@
       <c r="F89" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="10">
         <v>2017</v>
       </c>
       <c r="H89">
@@ -8053,7 +8218,7 @@
       <c r="F90" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="10">
         <v>2018</v>
       </c>
       <c r="H90">
@@ -8091,7 +8256,7 @@
       <c r="F91" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="10">
         <v>2019</v>
       </c>
       <c r="H91">
@@ -8129,7 +8294,7 @@
       <c r="F92" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="10">
         <v>1996</v>
       </c>
       <c r="H92">
@@ -8167,7 +8332,7 @@
       <c r="F93" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="10">
         <v>1997</v>
       </c>
       <c r="H93">
@@ -8205,7 +8370,7 @@
       <c r="F94" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="10">
         <v>1998</v>
       </c>
       <c r="H94">
@@ -8243,7 +8408,7 @@
       <c r="F95" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="10">
         <v>1999</v>
       </c>
       <c r="H95">
@@ -8281,7 +8446,7 @@
       <c r="F96" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="10">
         <v>2000</v>
       </c>
       <c r="H96">
@@ -8319,7 +8484,7 @@
       <c r="F97" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="10">
         <v>2001</v>
       </c>
       <c r="H97">
@@ -8357,7 +8522,7 @@
       <c r="F98" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="10">
         <v>2002</v>
       </c>
       <c r="H98">
@@ -8395,7 +8560,7 @@
       <c r="F99" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="10">
         <v>2003</v>
       </c>
       <c r="H99">
@@ -8433,7 +8598,7 @@
       <c r="F100" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="10">
         <v>2004</v>
       </c>
       <c r="H100">
@@ -8471,7 +8636,7 @@
       <c r="F101" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="10">
         <v>2005</v>
       </c>
       <c r="H101">
@@ -8509,7 +8674,7 @@
       <c r="F102" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="10">
         <v>2006</v>
       </c>
       <c r="H102">
@@ -8547,7 +8712,7 @@
       <c r="F103" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="10">
         <v>2007</v>
       </c>
       <c r="H103">
@@ -8585,7 +8750,7 @@
       <c r="F104" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="10">
         <v>2008</v>
       </c>
       <c r="H104">
@@ -8623,7 +8788,7 @@
       <c r="F105" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="10">
         <v>2009</v>
       </c>
       <c r="H105">
@@ -8661,7 +8826,7 @@
       <c r="F106" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="10">
         <v>2010</v>
       </c>
       <c r="H106">
@@ -8699,7 +8864,7 @@
       <c r="F107" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="10">
         <v>2011</v>
       </c>
       <c r="H107">
@@ -8737,7 +8902,7 @@
       <c r="F108" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="10">
         <v>2012</v>
       </c>
       <c r="H108">
@@ -8775,7 +8940,7 @@
       <c r="F109" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="10">
         <v>2013</v>
       </c>
       <c r="H109">
@@ -8813,7 +8978,7 @@
       <c r="F110" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="10">
         <v>2014</v>
       </c>
       <c r="H110">
@@ -8851,7 +9016,7 @@
       <c r="F111" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="10">
         <v>2015</v>
       </c>
       <c r="H111">
@@ -8889,7 +9054,7 @@
       <c r="F112" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="10">
         <v>2016</v>
       </c>
       <c r="H112">
@@ -8927,7 +9092,7 @@
       <c r="F113" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="10">
         <v>2017</v>
       </c>
       <c r="H113">
@@ -8965,7 +9130,7 @@
       <c r="F114" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="10">
         <v>2018</v>
       </c>
       <c r="H114">
@@ -9003,7 +9168,7 @@
       <c r="F115" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="10">
         <v>2019</v>
       </c>
       <c r="H115">
@@ -9029,23 +9194,24 @@
       <c r="B116" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>87</v>
       </c>
+      <c r="G116" s="11"/>
       <c r="H116">
-        <v>7.8575224718590695</v>
+        <v>7.44</v>
       </c>
       <c r="I116">
-        <v>9.07458080282486</v>
+        <v>6.4993822768361582</v>
       </c>
       <c r="J116">
-        <v>7.7485297026859384E-2</v>
+        <v>0.34</v>
       </c>
       <c r="K116">
         <v>683.3622562827203</v>
@@ -9061,15 +9227,16 @@
       <c r="B117" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>87</v>
       </c>
+      <c r="G117" s="10"/>
       <c r="H117">
         <v>16.248109738029164</v>
       </c>
@@ -9093,15 +9260,16 @@
       <c r="B118" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>87</v>
       </c>
+      <c r="G118" s="10"/>
       <c r="H118">
         <v>12.91438003683859</v>
       </c>
@@ -9125,23 +9293,24 @@
       <c r="B119" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>86</v>
       </c>
+      <c r="G119" s="11"/>
       <c r="H119">
-        <v>15.0489904293331</v>
+        <v>17.309999999999999</v>
       </c>
       <c r="I119">
-        <v>8.4588483096550657</v>
+        <v>8.1181984858757055</v>
       </c>
       <c r="J119">
-        <v>27.19</v>
+        <v>29.32</v>
       </c>
       <c r="K119">
         <v>430.83603582504435</v>
@@ -9157,29 +9326,27 @@
       <c r="B120" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D120" t="s">
-        <v>7</v>
-      </c>
-      <c r="E120" t="s">
+      <c r="D120" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E120" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>86</v>
       </c>
+      <c r="G120" s="11"/>
       <c r="H120">
-        <v>11.720490270820212</v>
+        <v>11.73</v>
       </c>
       <c r="I120">
-        <v>18.607093888851377</v>
+        <v>7.0068429237288132</v>
       </c>
       <c r="J120">
-        <v>16.03</v>
+        <v>6.65</v>
       </c>
       <c r="K120">
         <v>842.88626915570103</v>
-      </c>
-      <c r="L120">
-        <v>31.06</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -9189,29 +9356,30 @@
       <c r="B121" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D121" t="s">
-        <v>8</v>
-      </c>
-      <c r="E121" t="s">
+      <c r="D121" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>86</v>
       </c>
+      <c r="G121" s="10"/>
       <c r="H121">
-        <v>2.9276904219806621</v>
+        <v>11.720490270820212</v>
       </c>
       <c r="I121">
-        <v>5.2583425490023474</v>
+        <v>18.607093888851377</v>
       </c>
       <c r="J121">
-        <v>9.5049214921084271E-2</v>
+        <v>16.03</v>
       </c>
       <c r="K121">
         <v>853.49122807017557</v>
       </c>
       <c r="L121">
-        <v>36.86</v>
+        <v>31.06</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -9221,29 +9389,30 @@
       <c r="B122" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D122" t="s">
-        <v>9</v>
-      </c>
-      <c r="E122" t="s">
-        <v>16</v>
+      <c r="D122" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>86</v>
       </c>
+      <c r="G122" s="10"/>
       <c r="H122">
-        <v>8.9030978476249469</v>
+        <v>2.9276904219806621</v>
       </c>
       <c r="I122">
-        <v>10.228896939736345</v>
+        <v>5.2583425490023474</v>
       </c>
       <c r="J122">
-        <v>18.760000000000002</v>
+        <v>9.5049214921084271E-2</v>
       </c>
       <c r="K122">
         <v>908.74405292893255</v>
       </c>
       <c r="L122">
-        <v>26.52</v>
+        <v>36.86</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -9253,29 +9422,30 @@
       <c r="B123" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D123" t="s">
-        <v>10</v>
-      </c>
-      <c r="E123" t="s">
+      <c r="D123" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>86</v>
       </c>
+      <c r="G123" s="11"/>
       <c r="H123">
-        <v>3.3152522724761826</v>
+        <v>6.45</v>
       </c>
       <c r="I123">
-        <v>4.6382425014456183</v>
+        <v>8.1611078813559317</v>
       </c>
       <c r="J123">
-        <v>21.61</v>
+        <v>3.66</v>
       </c>
       <c r="K123">
         <v>768.01576965011407</v>
       </c>
       <c r="L123">
-        <v>28.45</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -9285,93 +9455,95 @@
       <c r="B124" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D124" t="s">
-        <v>11</v>
-      </c>
-      <c r="E124" t="s">
+      <c r="D124" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>86</v>
       </c>
+      <c r="G124" s="10"/>
       <c r="H124">
-        <v>9.5213671855321333</v>
+        <v>3.3152522724761826</v>
       </c>
       <c r="I124">
-        <v>8.9674759012644607</v>
+        <v>4.6382425014456183</v>
       </c>
       <c r="J124">
-        <v>0.16</v>
+        <v>21.61</v>
       </c>
       <c r="K124">
         <v>1342.6347128114639</v>
       </c>
       <c r="L124">
-        <v>25.14</v>
+        <v>28.45</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B125" t="s">
-        <v>50</v>
-      </c>
-      <c r="D125" t="s">
-        <v>51</v>
-      </c>
-      <c r="E125" t="s">
-        <v>52</v>
+        <v>12</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>86</v>
       </c>
+      <c r="G125" s="5"/>
       <c r="H125" s="5">
-        <v>11.564444802078857</v>
+        <v>9.5213671855321333</v>
       </c>
       <c r="I125" s="5">
-        <v>8.150323453046596</v>
+        <v>8.9674759012644607</v>
       </c>
       <c r="J125" s="5">
-        <v>0.28663803153633338</v>
+        <v>0.16</v>
       </c>
       <c r="K125" s="5">
         <v>550.98800000000006</v>
       </c>
       <c r="L125" s="5">
-        <v>25.529856600127594</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+        <v>25.14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D126" t="s">
-        <v>53</v>
-      </c>
-      <c r="E126" t="s">
-        <v>84</v>
+      <c r="D126" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H126" s="5">
-        <v>5.9876524580645158</v>
+        <v>11.564444802078857</v>
       </c>
       <c r="I126" s="5">
-        <v>9.2344973082821991</v>
+        <v>8.150323453046596</v>
       </c>
       <c r="J126" s="5">
-        <v>1.6435112877537352</v>
-      </c>
-      <c r="K126" s="5">
-        <v>978.95442447999994</v>
+        <v>0.28663803153633338</v>
+      </c>
+      <c r="K126" s="12">
+        <v>550.98800000000006</v>
       </c>
       <c r="L126" s="5">
-        <v>22.235628105039041</v>
+        <v>25.529856600127594</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -9382,7 +9554,7 @@
         <v>50</v>
       </c>
       <c r="D127" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E127" t="s">
         <v>84</v>
@@ -9391,19 +9563,19 @@
         <v>85</v>
       </c>
       <c r="H127" s="5">
-        <v>10.984452582795701</v>
+        <v>5.9876524580645158</v>
       </c>
       <c r="I127" s="5">
-        <v>9.1433926788530453</v>
+        <v>9.2344973082821991</v>
       </c>
       <c r="J127" s="5">
-        <v>2.7594098087514909</v>
+        <v>1.6435112877537352</v>
       </c>
       <c r="K127" s="5">
-        <v>806.226</v>
+        <v>978.95442447999994</v>
       </c>
       <c r="L127" s="5">
-        <v>19.578713968957874</v>
+        <v>22.235628105039041</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -9414,7 +9586,7 @@
         <v>50</v>
       </c>
       <c r="D128" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E128" t="s">
         <v>84</v>
@@ -9423,19 +9595,19 @@
         <v>85</v>
       </c>
       <c r="H128" s="5">
-        <v>13.241655592114695</v>
+        <v>10.984452582795701</v>
       </c>
       <c r="I128" s="5">
-        <v>5.4309053856630829</v>
+        <v>9.1433926788530453</v>
       </c>
       <c r="J128" s="5">
-        <v>0.44785451531958975</v>
+        <v>2.7594098087514909</v>
       </c>
       <c r="K128" s="5">
-        <v>595.55799999999999</v>
+        <v>806.226</v>
       </c>
       <c r="L128" s="5">
-        <v>24.750869061413677</v>
+        <v>19.578713968957874</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
@@ -9446,27 +9618,29 @@
         <v>50</v>
       </c>
       <c r="D129" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E129" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H129" s="5">
-        <v>11.569038514695343</v>
+        <v>13.241655592114695</v>
       </c>
       <c r="I129" s="5">
-        <v>6.1831653032258052</v>
+        <v>5.4309053856630829</v>
       </c>
       <c r="J129" s="5">
-        <v>0.15951463899387702</v>
+        <v>0.44785451531958975</v>
       </c>
       <c r="K129" s="5">
-        <v>719.49</v>
-      </c>
-      <c r="L129" s="5"/>
+        <v>595.55799999999999</v>
+      </c>
+      <c r="L129" s="5">
+        <v>24.750869061413677</v>
+      </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
@@ -9476,7 +9650,7 @@
         <v>50</v>
       </c>
       <c r="D130" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E130" t="s">
         <v>52</v>
@@ -9485,20 +9659,18 @@
         <v>86</v>
       </c>
       <c r="H130" s="5">
-        <v>6.3634249677419374</v>
+        <v>11.569038514695343</v>
       </c>
       <c r="I130" s="5">
-        <v>4.8726254211469522</v>
+        <v>6.1831653032258052</v>
       </c>
       <c r="J130" s="5">
-        <v>1.2183371742902527</v>
+        <v>0.15951463899387702</v>
       </c>
       <c r="K130" s="5">
-        <v>699.62</v>
-      </c>
-      <c r="L130" s="5">
-        <v>25.102339181286542</v>
-      </c>
+        <v>719.49</v>
+      </c>
+      <c r="L130" s="5"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
@@ -9508,7 +9680,7 @@
         <v>50</v>
       </c>
       <c r="D131" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E131" t="s">
         <v>52</v>
@@ -9517,19 +9689,19 @@
         <v>86</v>
       </c>
       <c r="H131" s="5">
-        <v>7.5418663770609324</v>
+        <v>6.3634249677419374</v>
       </c>
       <c r="I131" s="5">
-        <v>9.2364007605734741</v>
+        <v>4.8726254211469522</v>
       </c>
       <c r="J131" s="5">
-        <v>5.0264829356951478E-3</v>
+        <v>1.2183371742902527</v>
       </c>
       <c r="K131" s="5">
-        <v>623.08800000000008</v>
+        <v>699.62</v>
       </c>
       <c r="L131" s="5">
-        <v>25.774253731343286</v>
+        <v>25.102339181286542</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
@@ -9540,7 +9712,7 @@
         <v>50</v>
       </c>
       <c r="D132" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E132" t="s">
         <v>52</v>
@@ -9549,19 +9721,19 @@
         <v>86</v>
       </c>
       <c r="H132" s="5">
-        <v>4.3580828238166855</v>
+        <v>7.5418663770609324</v>
       </c>
       <c r="I132" s="5">
-        <v>6.8623136283746993</v>
+        <v>9.2364007605734741</v>
       </c>
       <c r="J132" s="5">
-        <v>8.7192047531990599E-2</v>
+        <v>5.0264829356951478E-3</v>
       </c>
       <c r="K132" s="5">
-        <v>900.53513793160073</v>
+        <v>623.08800000000008</v>
       </c>
       <c r="L132" s="5">
-        <v>23.438651766795143</v>
+        <v>25.774253731343286</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
@@ -9572,7 +9744,7 @@
         <v>50</v>
       </c>
       <c r="D133" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E133" t="s">
         <v>52</v>
@@ -9581,19 +9753,19 @@
         <v>86</v>
       </c>
       <c r="H133" s="5">
-        <v>10.807116559856631</v>
+        <v>4.3580828238166855</v>
       </c>
       <c r="I133" s="5">
-        <v>17.16674878357945</v>
+        <v>6.8623136283746993</v>
       </c>
       <c r="J133" s="5">
-        <v>3.7542823202857782</v>
+        <v>8.7192047531990599E-2</v>
       </c>
       <c r="K133" s="5">
-        <v>1732.3383999999999</v>
+        <v>900.53513793160073</v>
       </c>
       <c r="L133" s="5">
-        <v>19.333333333333336</v>
+        <v>23.438651766795143</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
@@ -9604,28 +9776,28 @@
         <v>50</v>
       </c>
       <c r="D134" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E134" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>86</v>
       </c>
       <c r="H134" s="5">
-        <v>9.735613550042526</v>
+        <v>10.807116559856631</v>
       </c>
       <c r="I134" s="5">
-        <v>5.7696831905629704</v>
+        <v>17.16674878357945</v>
       </c>
       <c r="J134" s="5">
-        <v>1.9815624982602158</v>
+        <v>3.7542823202857782</v>
       </c>
       <c r="K134" s="5">
-        <v>722.15747033353819</v>
+        <v>1732.3383999999999</v>
       </c>
       <c r="L134" s="5">
-        <v>26.447931526390871</v>
+        <v>19.333333333333336</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
@@ -9636,28 +9808,28 @@
         <v>50</v>
       </c>
       <c r="D135" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E135" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>86</v>
       </c>
       <c r="H135" s="5">
-        <v>20.540624754121868</v>
+        <v>9.735613550042526</v>
       </c>
       <c r="I135" s="5">
-        <v>9.8857318641519267</v>
+        <v>5.7696831905629704</v>
       </c>
       <c r="J135" s="5">
-        <v>2.1090559872967689</v>
+        <v>1.9815624982602158</v>
       </c>
       <c r="K135" s="5">
-        <v>659.34555632000001</v>
+        <v>722.15747033353819</v>
       </c>
       <c r="L135" s="5">
-        <v>23.52</v>
+        <v>26.447931526390871</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
@@ -9668,7 +9840,7 @@
         <v>50</v>
       </c>
       <c r="D136" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E136" t="s">
         <v>52</v>
@@ -9677,19 +9849,19 @@
         <v>86</v>
       </c>
       <c r="H136" s="5">
-        <v>12.675100006227321</v>
+        <v>20.540624754121868</v>
       </c>
       <c r="I136" s="5">
-        <v>7.0540910247632906</v>
+        <v>9.8857318641519267</v>
       </c>
       <c r="J136" s="5">
-        <v>0.10259442089788992</v>
+        <v>2.1090559872967689</v>
       </c>
       <c r="K136" s="5">
-        <v>651.52472513999999</v>
+        <v>659.34555632000001</v>
       </c>
       <c r="L136" s="5">
-        <v>27.352368591823492</v>
+        <v>23.52</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
@@ -9700,7 +9872,7 @@
         <v>50</v>
       </c>
       <c r="D137" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E137" t="s">
         <v>52</v>
@@ -9709,19 +9881,19 @@
         <v>86</v>
       </c>
       <c r="H137" s="5">
-        <v>41.726440677419355</v>
+        <v>12.675100006227321</v>
       </c>
       <c r="I137" s="5">
-        <v>14.720984675268818</v>
+        <v>7.0540910247632906</v>
       </c>
       <c r="J137" s="5">
-        <v>1.6281615675866792</v>
+        <v>0.10259442089788992</v>
       </c>
       <c r="K137" s="5">
-        <v>1185.3579999999999</v>
+        <v>651.52472513999999</v>
       </c>
       <c r="L137" s="5">
-        <v>19.936373276776248</v>
+        <v>27.352368591823492</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
@@ -9732,7 +9904,7 @@
         <v>50</v>
       </c>
       <c r="D138" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E138" t="s">
         <v>52</v>
@@ -9741,19 +9913,19 @@
         <v>86</v>
       </c>
       <c r="H138" s="5">
-        <v>16.313251271684589</v>
+        <v>41.726440677419355</v>
       </c>
       <c r="I138" s="5">
-        <v>10.007856784792718</v>
+        <v>14.720984675268818</v>
       </c>
       <c r="J138" s="5">
-        <v>1.3477144043264409</v>
+        <v>1.6281615675866792</v>
       </c>
       <c r="K138" s="5">
-        <v>1091.7305349600001</v>
+        <v>1185.3579999999999</v>
       </c>
       <c r="L138" s="5">
-        <v>21.368560990373656</v>
+        <v>19.936373276776248</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
@@ -9764,7 +9936,7 @@
         <v>50</v>
       </c>
       <c r="D139" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E139" t="s">
         <v>52</v>
@@ -9773,22 +9945,55 @@
         <v>86</v>
       </c>
       <c r="H139" s="5">
+        <v>16.313251271684589</v>
+      </c>
+      <c r="I139" s="5">
+        <v>10.007856784792718</v>
+      </c>
+      <c r="J139" s="5">
+        <v>1.3477144043264409</v>
+      </c>
+      <c r="K139" s="5">
+        <v>1091.7305349600001</v>
+      </c>
+      <c r="L139" s="5">
+        <v>21.368560990373656</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A140" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B140" t="s">
+        <v>50</v>
+      </c>
+      <c r="D140" t="s">
+        <v>68</v>
+      </c>
+      <c r="E140" t="s">
+        <v>52</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H140" s="5">
         <v>11.54539542866083</v>
       </c>
-      <c r="I139" s="5">
+      <c r="I140" s="5">
         <v>5.5286410375871169</v>
       </c>
-      <c r="J139" s="5">
+      <c r="J140" s="5">
         <v>0.57731769027377577</v>
       </c>
-      <c r="K139" s="5">
+      <c r="K140" s="5">
         <v>751.73521962011046</v>
       </c>
-      <c r="L139" s="5">
+      <c r="L140" s="5">
         <v>22.740963855421686</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L140" xr:uid="{270E5FE8-F0BB-4322-B044-213B2EC78928}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/ICP_Level_II_sites_N_data_2021.xlsx
+++ b/data/ICP_Level_II_sites_N_data_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon Tresch IAP\Desktop\IAP\1_Projects\11_UNECE\N_leaching_CLempN\N_leaching_analysis_CLempN\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6728BA-F2BD-4E56-9667-E6798C3D059C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DB4581-B8FC-4EC0-B32A-C5387AFBEBFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2856" yWindow="2508" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ICP Level II N data" sheetId="1" r:id="rId1"/>
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -925,7 +925,9 @@
       <c r="G8" s="1">
         <v>6.65</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8">
+        <v>25.3</v>
+      </c>
       <c r="I8" t="s">
         <v>97</v>
       </c>
@@ -4804,9 +4806,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFB1B43-A2CF-41A2-B653-1C573349BF1F}">
   <dimension ref="A1:L140"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B144" sqref="B144"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L120" sqref="L120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9348,6 +9350,9 @@
       <c r="K120">
         <v>842.88626915570103</v>
       </c>
+      <c r="L120" s="5">
+        <v>25.3</v>
+      </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">

--- a/data/ICP_Level_II_sites_N_data_2021.xlsx
+++ b/data/ICP_Level_II_sites_N_data_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon Tresch IAP\Desktop\IAP\1_Projects\11_UNECE\N_leaching_CLempN\N_leaching_analysis_CLempN\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DB4581-B8FC-4EC0-B32A-C5387AFBEBFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2603F79-EFD6-4B5D-A4ED-1A17845A9F24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47025" yWindow="1260" windowWidth="13830" windowHeight="7170" firstSheet="1" activeTab="2" xr2:uid="{4B878E5B-3B0D-4C3A-956A-F5942ADBA4FC}"/>
   </bookViews>
   <sheets>
     <sheet name="ICP Level II N data" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="113">
   <si>
     <t>throughfall</t>
   </si>
@@ -333,6 +333,42 @@
   </si>
   <si>
     <t>can update to 2014</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Rarau</t>
+  </si>
+  <si>
+    <t>Fundata</t>
+  </si>
+  <si>
+    <t>Stalpeni</t>
+  </si>
+  <si>
+    <t>Stefanesti</t>
+  </si>
+  <si>
+    <t>Predeal</t>
+  </si>
+  <si>
+    <t>oak (Quercus petraea)</t>
+  </si>
+  <si>
+    <t>oak (Quercus robur)</t>
+  </si>
+  <si>
+    <t>I send you in attach data concerning our level II plots. We use gravitational lysimeters.</t>
+  </si>
+  <si>
+    <t>At Stefanesti, located at about 100 m altitude, close to Bucharest, the water percolates very difficult to the deeper soil, so we had soil solution at 60 cm only in 2015. For the other years, you have water fluxes only at 40 or even 20 cm. There are very small quantities of percolating water, but with high NO3 concentrations.</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>RO - Carmen Lacoban</t>
   </si>
 </sst>
 </file>
@@ -342,7 +378,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +419,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -398,7 +442,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -406,11 +450,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -426,9 +484,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{C0E08F85-3843-49E7-B583-1A88F985272C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -706,11 +766,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1103,10 +1161,6 @@
         <f>AVERAGE('annual data'!E17:E21)</f>
         <v>871.51613062910133</v>
       </c>
-      <c r="E14" s="1">
-        <f>AVERAGE('annual data'!F17:F21)</f>
-        <v>17.988004962702586</v>
-      </c>
       <c r="F14" s="1">
         <f>AVERAGE('annual data'!G17:G21)</f>
         <v>10.746842449741774</v>
@@ -1717,7 +1771,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -1750,8 +1804,158 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1">
+        <f>AVERAGE('annual data'!F118:F122)</f>
+        <v>3.1440000000000001</v>
+      </c>
+      <c r="F34" s="1">
+        <f>AVERAGE('annual data'!G118:G122)</f>
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="G34" s="1">
+        <f>AVERAGE('annual data'!H118:H122)</f>
+        <v>13.92342857142857</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="J34" s="5" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="1">
+        <f>AVERAGE('annual data'!F123:F127)</f>
+        <v>7.3079999999999998</v>
+      </c>
+      <c r="F35" s="1">
+        <f>AVERAGE('annual data'!G123:G127)</f>
+        <v>3.1360000000000001</v>
+      </c>
+      <c r="G35" s="1">
+        <f>AVERAGE('annual data'!H123:H127)</f>
+        <v>32.363999999999997</v>
+      </c>
+      <c r="H35" s="5">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="1">
+        <f>AVERAGE('annual data'!F128:F132)</f>
+        <v>5.0819999999999999</v>
+      </c>
+      <c r="F36" s="1">
+        <f>AVERAGE('annual data'!G128:G132)</f>
+        <v>4.306</v>
+      </c>
+      <c r="G36" s="1">
+        <f>AVERAGE('annual data'!H128:H132)</f>
+        <v>22.506</v>
+      </c>
+      <c r="H36" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="1">
+        <f>AVERAGE('annual data'!F133:F137)</f>
+        <v>12.447999999999999</v>
+      </c>
+      <c r="F37" s="1">
+        <f>AVERAGE('annual data'!G133:G137)</f>
+        <v>11.875999999999999</v>
+      </c>
+      <c r="G37" s="1">
+        <f>AVERAGE('annual data'!H133:H137)</f>
+        <v>15.326857142857145</v>
+      </c>
+      <c r="H37">
+        <v>1.71</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="1">
+        <f>AVERAGE('annual data'!F138:F142)</f>
+        <v>5.4960000000000004</v>
+      </c>
+      <c r="F38" s="1">
+        <f>AVERAGE('annual data'!G138:G142)</f>
+        <v>10.23</v>
+      </c>
+      <c r="G38" s="1">
+        <f>AVERAGE('annual data'!H138:H142)</f>
+        <v>24.33942857142857</v>
+      </c>
+      <c r="H38" s="5">
+        <v>2.79</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J38" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1762,12 +1966,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1152" topLeftCell="A16" activePane="bottomLeft"/>
-      <selection activeCell="F3" sqref="F3"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D17:D21"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A138" sqref="A138:C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4797,6 +5000,606 @@
         <v>0.15231883285201006</v>
       </c>
     </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D118" s="5">
+        <v>2015</v>
+      </c>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5">
+        <v>3.64</v>
+      </c>
+      <c r="G118" s="5">
+        <v>3.58</v>
+      </c>
+      <c r="H118" s="5">
+        <v>16.12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D119" s="5">
+        <v>2016</v>
+      </c>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5">
+        <v>2.78</v>
+      </c>
+      <c r="G119" s="5">
+        <v>1.73</v>
+      </c>
+      <c r="H119" s="5">
+        <v>12.31142857142857</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D120" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5">
+        <v>2.56</v>
+      </c>
+      <c r="G120" s="5">
+        <v>2.85</v>
+      </c>
+      <c r="H120" s="5">
+        <v>11.337142857142856</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D121" s="5">
+        <v>2018</v>
+      </c>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5">
+        <v>3.42</v>
+      </c>
+      <c r="G121" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="H121" s="5">
+        <v>15.145714285714286</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D122" s="5">
+        <v>2019</v>
+      </c>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5">
+        <v>3.32</v>
+      </c>
+      <c r="G122" s="5">
+        <v>3.35</v>
+      </c>
+      <c r="H122" s="5">
+        <v>14.702857142857143</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D123" s="5">
+        <v>2015</v>
+      </c>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5">
+        <v>4.92</v>
+      </c>
+      <c r="G123" s="5">
+        <v>2.63</v>
+      </c>
+      <c r="H123" s="5">
+        <v>21.78857142857143</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D124" s="5">
+        <v>2016</v>
+      </c>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="G124" s="5">
+        <v>2.52</v>
+      </c>
+      <c r="H124" s="5">
+        <v>20.194285714285712</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D125" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5">
+        <v>6.72</v>
+      </c>
+      <c r="G125" s="5">
+        <v>3.72</v>
+      </c>
+      <c r="H125" s="5">
+        <v>29.759999999999998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D126" s="5">
+        <v>2018</v>
+      </c>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5">
+        <v>11.36</v>
+      </c>
+      <c r="G126" s="5">
+        <v>3.31</v>
+      </c>
+      <c r="H126" s="5">
+        <v>50.308571428571426</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D127" s="5">
+        <v>2019</v>
+      </c>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5">
+        <v>8.98</v>
+      </c>
+      <c r="G127" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="H127" s="5">
+        <v>39.768571428571427</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D128" s="5">
+        <v>2015</v>
+      </c>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5">
+        <v>4.42</v>
+      </c>
+      <c r="G128" s="5">
+        <v>2.65</v>
+      </c>
+      <c r="H128" s="5">
+        <v>19.574285714285715</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D129" s="5">
+        <v>2016</v>
+      </c>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="G129" s="5">
+        <v>3.75</v>
+      </c>
+      <c r="H129" s="5">
+        <v>19.840000000000003</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D130" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5">
+        <v>7.21</v>
+      </c>
+      <c r="G130" s="5">
+        <v>5.04</v>
+      </c>
+      <c r="H130" s="5">
+        <v>31.93</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D131" s="5">
+        <v>2018</v>
+      </c>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5">
+        <v>4.34</v>
+      </c>
+      <c r="G131" s="5">
+        <v>5.12</v>
+      </c>
+      <c r="H131" s="5">
+        <v>19.22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D132" s="5">
+        <v>2019</v>
+      </c>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="G132" s="5">
+        <v>4.97</v>
+      </c>
+      <c r="H132" s="5">
+        <v>21.965714285714284</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D133" s="5">
+        <v>2015</v>
+      </c>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5">
+        <v>17.3</v>
+      </c>
+      <c r="G133" s="5">
+        <v>5.03</v>
+      </c>
+      <c r="H133" s="5">
+        <v>76.614285714285728</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D134" s="5">
+        <v>2016</v>
+      </c>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5">
+        <v>13.06</v>
+      </c>
+      <c r="G134" s="5">
+        <v>11.67</v>
+      </c>
+      <c r="H134" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D135" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5">
+        <v>10.43</v>
+      </c>
+      <c r="G135" s="5">
+        <v>12.19</v>
+      </c>
+      <c r="H135" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D136" s="5">
+        <v>2018</v>
+      </c>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5">
+        <v>7.51</v>
+      </c>
+      <c r="G136" s="5">
+        <v>13.19</v>
+      </c>
+      <c r="H136" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D137" s="5">
+        <v>2019</v>
+      </c>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5">
+        <v>13.94</v>
+      </c>
+      <c r="G137" s="5">
+        <v>17.3</v>
+      </c>
+      <c r="H137" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D138" s="5">
+        <v>2015</v>
+      </c>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="G138" s="5">
+        <v>9.73</v>
+      </c>
+      <c r="H138" s="5">
+        <v>20.858571428571427</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D139" s="5">
+        <v>2016</v>
+      </c>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5">
+        <v>4.54</v>
+      </c>
+      <c r="G139" s="5">
+        <v>9.23</v>
+      </c>
+      <c r="H139" s="5">
+        <v>20.105714285714289</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D140" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5">
+        <v>7.18</v>
+      </c>
+      <c r="G140" s="5">
+        <v>12.77</v>
+      </c>
+      <c r="H140" s="5">
+        <v>31.797142857142855</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D141" s="5">
+        <v>2018</v>
+      </c>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5">
+        <v>4.99</v>
+      </c>
+      <c r="G141" s="5">
+        <v>12.01</v>
+      </c>
+      <c r="H141" s="5">
+        <v>22.098571428571429</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D142" s="5">
+        <v>2019</v>
+      </c>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5">
+        <v>6.06</v>
+      </c>
+      <c r="G142" s="5">
+        <v>7.41</v>
+      </c>
+      <c r="H142" s="5">
+        <v>26.837142857142855</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4804,11 +5607,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFB1B43-A2CF-41A2-B653-1C573349BF1F}">
-  <dimension ref="A1:L140"/>
+  <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L120" sqref="L120"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4819,7 +5621,7 @@
     <col min="6" max="6" width="12.44140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -9995,6 +10797,149 @@
       </c>
       <c r="L140" s="5">
         <v>22.740963855421686</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A141" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D141" t="s">
+        <v>102</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H141">
+        <v>3.1440000000000001</v>
+      </c>
+      <c r="I141">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="J141">
+        <v>13.92342857142857</v>
+      </c>
+      <c r="L141" s="5"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A142" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D142" t="s">
+        <v>103</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H142">
+        <v>7.3079999999999998</v>
+      </c>
+      <c r="I142">
+        <v>3.1360000000000001</v>
+      </c>
+      <c r="J142">
+        <v>32.363999999999997</v>
+      </c>
+      <c r="L142" s="5">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A143" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D143" t="s">
+        <v>104</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H143">
+        <v>5.0819999999999999</v>
+      </c>
+      <c r="I143">
+        <v>4.306</v>
+      </c>
+      <c r="J143">
+        <v>22.506</v>
+      </c>
+      <c r="L143" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A144" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D144" t="s">
+        <v>105</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H144">
+        <v>12.447999999999999</v>
+      </c>
+      <c r="I144">
+        <v>11.875999999999999</v>
+      </c>
+      <c r="J144">
+        <v>15.326857142857145</v>
+      </c>
+      <c r="L144" s="5">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A145" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D145" t="s">
+        <v>106</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H145">
+        <v>5.4960000000000004</v>
+      </c>
+      <c r="I145">
+        <v>10.23</v>
+      </c>
+      <c r="J145">
+        <v>24.33942857142857</v>
+      </c>
+      <c r="L145" s="5">
+        <v>2.79</v>
       </c>
     </row>
   </sheetData>

--- a/data/ICP_Level_II_sites_N_data_2021.xlsx
+++ b/data/ICP_Level_II_sites_N_data_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon Tresch IAP\Desktop\IAP\1_Projects\11_UNECE\N_leaching_CLempN\N_leaching_analysis_CLempN\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2603F79-EFD6-4B5D-A4ED-1A17845A9F24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68B48F6-5362-4669-94E0-A01BC6ED77BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47025" yWindow="1260" windowWidth="13830" windowHeight="7170" firstSheet="1" activeTab="2" xr2:uid="{4B878E5B-3B0D-4C3A-956A-F5942ADBA4FC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="2" xr2:uid="{4B878E5B-3B0D-4C3A-956A-F5942ADBA4FC}"/>
   </bookViews>
   <sheets>
     <sheet name="ICP Level II N data" sheetId="1" r:id="rId1"/>
@@ -5609,8 +5609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFB1B43-A2CF-41A2-B653-1C573349BF1F}">
   <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B149" sqref="B149"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="F91" sqref="F66:F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8108,7 +8108,7 @@
         <v>32</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G66" s="10">
         <v>1994</v>
@@ -8146,7 +8146,7 @@
         <v>32</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G67" s="10">
         <v>1995</v>
@@ -8184,7 +8184,7 @@
         <v>32</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G68" s="10">
         <v>1996</v>
@@ -8222,7 +8222,7 @@
         <v>32</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G69" s="10">
         <v>1997</v>
@@ -8260,7 +8260,7 @@
         <v>32</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G70" s="10">
         <v>1998</v>
@@ -8298,7 +8298,7 @@
         <v>32</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G71" s="10">
         <v>1999</v>
@@ -8336,7 +8336,7 @@
         <v>32</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G72" s="10">
         <v>2000</v>
@@ -8374,7 +8374,7 @@
         <v>32</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G73" s="10">
         <v>2001</v>
@@ -8412,7 +8412,7 @@
         <v>32</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G74" s="10">
         <v>2002</v>
@@ -8450,7 +8450,7 @@
         <v>32</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G75" s="10">
         <v>2003</v>
@@ -8488,7 +8488,7 @@
         <v>32</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G76" s="10">
         <v>2004</v>
@@ -8526,7 +8526,7 @@
         <v>32</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G77" s="10">
         <v>2005</v>
@@ -8564,7 +8564,7 @@
         <v>32</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G78" s="10">
         <v>2006</v>
@@ -8602,7 +8602,7 @@
         <v>32</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G79" s="10">
         <v>2007</v>
@@ -8640,7 +8640,7 @@
         <v>32</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G80" s="10">
         <v>2008</v>
@@ -8678,7 +8678,7 @@
         <v>32</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G81" s="10">
         <v>2009</v>
@@ -8716,7 +8716,7 @@
         <v>32</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G82" s="10">
         <v>2010</v>
@@ -8754,7 +8754,7 @@
         <v>32</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G83" s="10">
         <v>2011</v>
@@ -8792,7 +8792,7 @@
         <v>32</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G84" s="10">
         <v>2012</v>
@@ -8830,7 +8830,7 @@
         <v>32</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G85" s="10">
         <v>2013</v>
@@ -8868,7 +8868,7 @@
         <v>32</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G86" s="10">
         <v>2014</v>
@@ -8906,7 +8906,7 @@
         <v>32</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G87" s="10">
         <v>2015</v>
@@ -8944,7 +8944,7 @@
         <v>32</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G88" s="10">
         <v>2016</v>
@@ -8982,7 +8982,7 @@
         <v>32</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G89" s="10">
         <v>2017</v>
@@ -9020,7 +9020,7 @@
         <v>32</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G90" s="10">
         <v>2018</v>
@@ -9058,7 +9058,7 @@
         <v>32</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G91" s="10">
         <v>2019</v>

--- a/data/ICP_Level_II_sites_N_data_2021.xlsx
+++ b/data/ICP_Level_II_sites_N_data_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon Tresch IAP\Desktop\IAP\1_Projects\11_UNECE\N_leaching_CLempN\N_leaching_analysis_CLempN\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68B48F6-5362-4669-94E0-A01BC6ED77BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B98E58-BCF4-4ECF-BD52-CE3DD167FC81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="2" xr2:uid="{4B878E5B-3B0D-4C3A-956A-F5942ADBA4FC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4B878E5B-3B0D-4C3A-956A-F5942ADBA4FC}"/>
   </bookViews>
   <sheets>
     <sheet name="ICP Level II N data" sheetId="1" r:id="rId1"/>
@@ -768,7 +768,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView topLeftCell="B24" workbookViewId="0">
+      <selection activeCell="H38" sqref="H34:H38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1826,6 +1828,9 @@
         <f>AVERAGE('annual data'!H118:H122)</f>
         <v>13.92342857142857</v>
       </c>
+      <c r="H34">
+        <v>25.082361913668905</v>
+      </c>
       <c r="I34" s="5" t="s">
         <v>97</v>
       </c>
@@ -1855,8 +1860,8 @@
         <f>AVERAGE('annual data'!H123:H127)</f>
         <v>32.363999999999997</v>
       </c>
-      <c r="H35" s="5">
-        <v>2.0499999999999998</v>
+      <c r="H35">
+        <v>24.43652618135377</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>97</v>
@@ -1884,8 +1889,8 @@
         <f>AVERAGE('annual data'!H128:H132)</f>
         <v>22.506</v>
       </c>
-      <c r="H36" s="5">
-        <v>2.0299999999999998</v>
+      <c r="H36">
+        <v>25.071010860484545</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>97</v>
@@ -1917,7 +1922,7 @@
         <v>15.326857142857145</v>
       </c>
       <c r="H37">
-        <v>1.71</v>
+        <v>19.732025406847821</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>97</v>
@@ -1948,8 +1953,8 @@
         <f>AVERAGE('annual data'!H138:H142)</f>
         <v>24.33942857142857</v>
       </c>
-      <c r="H38" s="5">
-        <v>2.79</v>
+      <c r="H38">
+        <v>27.158369068451201</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>97</v>
@@ -1969,8 +1974,8 @@
   <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A138" sqref="A138:C138"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F138" sqref="F138:H142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5609,8 +5614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFB1B43-A2CF-41A2-B653-1C573349BF1F}">
   <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="F91" sqref="F66:F91"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="M142" sqref="M142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10824,7 +10829,9 @@
       <c r="J141">
         <v>13.92342857142857</v>
       </c>
-      <c r="L141" s="5"/>
+      <c r="L141" s="5">
+        <v>25.082361913668905</v>
+      </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
@@ -10852,7 +10859,7 @@
         <v>32.363999999999997</v>
       </c>
       <c r="L142" s="5">
-        <v>2.0499999999999998</v>
+        <v>24.43652618135377</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
@@ -10881,7 +10888,7 @@
         <v>22.506</v>
       </c>
       <c r="L143" s="5">
-        <v>2.0299999999999998</v>
+        <v>25.071010860484545</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
@@ -10910,7 +10917,7 @@
         <v>15.326857142857145</v>
       </c>
       <c r="L144" s="5">
-        <v>1.71</v>
+        <v>19.732025406847821</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -10939,7 +10946,7 @@
         <v>24.33942857142857</v>
       </c>
       <c r="L145" s="5">
-        <v>2.79</v>
+        <v>27.158369068451201</v>
       </c>
     </row>
   </sheetData>
